--- a/my_web_portfolio/static/summary.xlsx
+++ b/my_web_portfolio/static/summary.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
@@ -592,24 +592,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">GBOR150224WK7PD1CWTPSS1            </t>
+          <t xml:space="preserve">GBOR21324PLMAG9                    </t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4064081738</v>
+        <v>4064958106</v>
       </c>
       <c r="E2" t="n">
-        <v>45332</v>
+        <v>45343</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>12586766</v>
+        <v>12560070</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>NESCAFECreamyWhiteTP 8(24X51g) PR20+4 PH</t>
+          <t xml:space="preserve">MAGGI MAGIC SARAP 60(16x8g) N1 PH       </t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -649,28 +649,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GBOR150224WK7PD1CWTPSS1            </t>
+          <t xml:space="preserve">GBOR21324PLMAG9                    </t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4064081738</v>
+        <v>4064958106</v>
       </c>
       <c r="E3" t="n">
-        <v>45332</v>
+        <v>45343</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>12586766</v>
+        <v>12560070</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NESCAFECreamyWhiteTP 8(24X51g) PR20+4 PH</t>
+          <t xml:space="preserve">MAGGI MAGIC SARAP 60(16x8g) N1 PH       </t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -680,11 +680,11 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
-          <t>33430597T1</t>
+          <t>40228985F1</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
@@ -708,28 +708,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">GBOR150224WK7PD1CWTPSS1            </t>
+          <t xml:space="preserve">GBOR21324PLMAG9                    </t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4064081738</v>
+        <v>4064958106</v>
       </c>
       <c r="E4" t="n">
-        <v>45332</v>
+        <v>45343</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>12586766</v>
+        <v>12560070</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>NESCAFECreamyWhiteTP 8(24X51g) PR20+4 PH</t>
+          <t xml:space="preserve">MAGGI MAGIC SARAP 60(16x8g) N1 PH       </t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -739,11 +739,11 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>33520597E1</t>
+          <t>40288985F1</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>45657</v>
+        <v>45688</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
@@ -757,61 +757,99 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">5432038   </t>
+          <t>Ship To</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fast Distribution Corporation      </t>
+          <t>Ship To Name</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">GBOR150224WK7PD1CWTPSS1            </t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4064081738</v>
-      </c>
-      <c r="E5" t="n">
-        <v>45332</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
-        <v>12586766</v>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>NESCAFECreamyWhiteTP 8(24X51g) PR20+4 PH</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>3</v>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS </t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>33530597U1</t>
-        </is>
-      </c>
-      <c r="O5" t="n">
-        <v>45657</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -826,28 +864,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">GBOR150224WK7PD1CWTPSS1            </t>
+          <t xml:space="preserve">WBOR21324BNM1502                   </t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4064081738</v>
+        <v>4064938041</v>
       </c>
       <c r="E6" t="n">
-        <v>45332</v>
+        <v>45343</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>12586766</v>
+        <v>12531198</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>NESCAFECreamyWhiteTP 8(24X51g) PR20+4 PH</t>
+          <t xml:space="preserve">BONAMIL 24x150g PH                      </t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -857,11 +895,11 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>33550597R1</t>
+          <t xml:space="preserve">402373513 </t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>45657</v>
+        <v>46053</v>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
@@ -875,61 +913,2928 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t xml:space="preserve">5432038   </t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">Fast Distribution Corporation      </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">GBOR150224WK7PD1CWTPSS1            </t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4064081738</v>
-      </c>
-      <c r="E7" t="n">
-        <v>45332</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>12586766</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NESCAFECreamyWhiteTP 8(24X51g) PR20+4 PH</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>56</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324BNA3502                   </t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4064967915</v>
+      </c>
+      <c r="E8" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>12530651</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BONNA 18x350g PH                        </t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>18</v>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t xml:space="preserve">CS </t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>33600597U1</t>
-        </is>
-      </c>
-      <c r="O7" t="n">
-        <v>45657</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">402273517 </t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>45961</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324PLRTDBC1                  </t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4064976964</v>
+      </c>
+      <c r="E10" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>12449765</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHUCKIE Opti-Grow PAPStraw 24x250ml PH  </t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>216</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>334064382A</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>45596</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324PLRTDBC1                  </t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4064976964</v>
+      </c>
+      <c r="E11" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>12449773</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHUCKIE Opti-Grow PAPStraw 32x180ml PH  </t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>168</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>40210189FD</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>45626</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324PLRTDBC1                  </t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4064976964</v>
+      </c>
+      <c r="E12" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>12449757</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CHUCKIE Opti-Grow PAPStraw 60x110ml PH  </t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>40240189LD</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>45626</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324BNM3502                   </t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4064951444</v>
+      </c>
+      <c r="E14" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>12530650</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BONAMIL 18x350g N1 PH                   </t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>12</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">403173517 </t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>46053</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324CFM52                     </t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4064965678</v>
+      </c>
+      <c r="E16" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>12540313</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COFFEE-MATE 20(48x5g) PH                </t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324CFM52                     </t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4064965678</v>
+      </c>
+      <c r="E17" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>12540313</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COFFEE-MATE 20(48x5g) PH                </t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>37</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>40340604H1</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>45808</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324CFM52                     </t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4064965678</v>
+      </c>
+      <c r="E18" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>12540313</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">COFFEE-MATE 20(48x5g) PH                </t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>5</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>40400604J1</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>45808</v>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324BPS3502                   </t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>4064946239</v>
+      </c>
+      <c r="E20" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>12452881</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BONAKID PRE-SCHOOL 3+ Box 18x350g PH    </t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">402973517 </t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>46053</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324CON2                      </t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4064967855</v>
+      </c>
+      <c r="E22" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>12575583</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIT KAT 4F Fwp VLTN 12(24x35g) ID       </t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DS </t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>33139531BA</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>45604</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324CON2                      </t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>4064967855</v>
+      </c>
+      <c r="E23" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>12559481</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KIT KAT 2F Foil Wrap 20(24x17g) XI      </t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DS </t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>32929531AA</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>45583</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324PLMAG11                   </t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4064963174</v>
+      </c>
+      <c r="E25" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>12560070</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAGGI MAGIC SARAP 60(16x8g) N1 PH       </t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">          </t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324PLMAG11                   </t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4064963174</v>
+      </c>
+      <c r="E26" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>12560070</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAGGI MAGIC SARAP 60(16x8g) N1 PH       </t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>169</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>40228985F1</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>45688</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324PLMAG11                   </t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4064963174</v>
+      </c>
+      <c r="E27" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>12560070</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MAGGI MAGIC SARAP 60(16x8g) N1 PH       </t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>30</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>40228985G1</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>45688</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324MXS2                      </t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4064965359</v>
+      </c>
+      <c r="E29" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>12532006</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NESCAFE Original Pbg 8(30x26g) PH       </t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>4</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>40198985A1</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>45688</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324MXS2                      </t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4064965359</v>
+      </c>
+      <c r="E30" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>12531361</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NESCAFE Creamylatte 240x25.5g PH        </t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>4</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>40100602M1</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>45688</v>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324MXS2                      </t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4064965359</v>
+      </c>
+      <c r="E31" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>12531351</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NESCAFE Creamylatte Pbg 8(30x25.5g) PH  </t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>40120602M1</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>45688</v>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324PNK1                      </t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4064954758</v>
+      </c>
+      <c r="E33" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>12530763</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S-26 6-12 Months Box 2x2.4kg PH         </t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">335773514 </t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>46022</v>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324PNK1                      </t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>4064954758</v>
+      </c>
+      <c r="E34" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>12530777</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S-26 0-6 Months Box 18x400g PH          </t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">335973517 </t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>46022</v>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324BNMPR22                   </t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>4064974388</v>
+      </c>
+      <c r="E36" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>12530661</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BONAMIL 6x1.2kg PH                      </t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>5</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">403173514 </t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>46053</v>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324BNMPR12                   </t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>4064960785</v>
+      </c>
+      <c r="E38" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>12531197</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BONAMIL 4x2.4kg PH                      </t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">402473514 </t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>46053</v>
+      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GBOR21324SOL1                      </t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>4064963387</v>
+      </c>
+      <c r="E40" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>12269389</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NESCAFE CLASSIC DECAF 60x20g PH         </t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>33490190DA</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>45838</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324BNK4NPH2                  </t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>4064978280</v>
+      </c>
+      <c r="E42" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>12530649</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BONAKID 4x2kg PH                        </t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>4</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">401973514 </t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>45961</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324BNK62                     </t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>4064958617</v>
+      </c>
+      <c r="E44" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>12530660</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BONAKID 6x1.2kg PH                      </t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">402573514 </t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>45961</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Ship To</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Ship To Name</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Purchase Order Number</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sales Order</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Requested Delivery Date</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SYSPRO Purchase Order</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Line Number</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Warehouse</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Material Description</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Delivery Quantity</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Delivery Unit</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Bin Location</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Batch Code</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Batch Expiration Date</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Reference/GRN</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Receipt Date</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Batch Status</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Expected Release Date</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5432038   </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fast Distribution Corporation      </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">WBOR21324BNK3502                   </t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>4064943497</v>
+      </c>
+      <c r="E46" t="n">
+        <v>45343</v>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>12530629</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BONAKID 18x350g PH                      </t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>13</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS </t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">401973517 </t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>45961</v>
+      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8555,10 +11460,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Material</t>
-        </is>
+      <c r="A2" t="n">
+        <v>12452881</v>
       </c>
       <c r="B2">
         <f>VLOOKUP($A2,DATA!$I:$J,2,FALSE)</f>
@@ -8584,7 +11487,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12586766</v>
+        <v>12531351</v>
       </c>
       <c r="B3">
         <f>VLOOKUP($A3,DATA!$I:$J,2,FALSE)</f>
@@ -8609,6 +11512,9 @@
       <c r="G3" s="15" t="n"/>
     </row>
     <row r="4">
+      <c r="A4" t="n">
+        <v>12540313</v>
+      </c>
       <c r="B4">
         <f>VLOOKUP($A4,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8632,6 +11538,9 @@
       <c r="G4" s="15" t="n"/>
     </row>
     <row r="5">
+      <c r="A5" t="n">
+        <v>12531361</v>
+      </c>
       <c r="B5">
         <f>VLOOKUP($A5,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8655,6 +11564,9 @@
       <c r="G5" s="15" t="n"/>
     </row>
     <row r="6">
+      <c r="A6" t="n">
+        <v>12532006</v>
+      </c>
       <c r="B6">
         <f>VLOOKUP($A6,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8678,6 +11590,11 @@
       <c r="G6" s="15" t="n"/>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Material</t>
+        </is>
+      </c>
       <c r="B7">
         <f>VLOOKUP($A7,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8701,6 +11618,9 @@
       <c r="G7" s="15" t="n"/>
     </row>
     <row r="8">
+      <c r="A8" t="n">
+        <v>12530629</v>
+      </c>
       <c r="B8">
         <f>VLOOKUP($A8,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8724,6 +11644,9 @@
       <c r="G8" s="15" t="n"/>
     </row>
     <row r="9">
+      <c r="A9" t="n">
+        <v>12560070</v>
+      </c>
       <c r="B9">
         <f>VLOOKUP($A9,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8747,6 +11670,9 @@
       <c r="G9" s="15" t="n"/>
     </row>
     <row r="10">
+      <c r="A10" t="n">
+        <v>12530763</v>
+      </c>
       <c r="B10">
         <f>VLOOKUP($A10,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8770,6 +11696,9 @@
       <c r="G10" s="15" t="n"/>
     </row>
     <row r="11">
+      <c r="A11" t="n">
+        <v>12269389</v>
+      </c>
       <c r="B11">
         <f>VLOOKUP($A11,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8793,6 +11722,9 @@
       <c r="G11" s="15" t="n"/>
     </row>
     <row r="12">
+      <c r="A12" t="n">
+        <v>12530777</v>
+      </c>
       <c r="B12">
         <f>VLOOKUP($A12,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8816,6 +11748,9 @@
       <c r="G12" s="15" t="n"/>
     </row>
     <row r="13">
+      <c r="A13" t="n">
+        <v>12530650</v>
+      </c>
       <c r="B13">
         <f>VLOOKUP($A13,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8839,6 +11774,9 @@
       <c r="G13" s="15" t="n"/>
     </row>
     <row r="14">
+      <c r="A14" t="n">
+        <v>12530651</v>
+      </c>
       <c r="B14">
         <f>VLOOKUP($A14,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8862,6 +11800,9 @@
       <c r="G14" s="15" t="n"/>
     </row>
     <row r="15">
+      <c r="A15" t="n">
+        <v>12530649</v>
+      </c>
       <c r="B15">
         <f>VLOOKUP($A15,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8885,6 +11826,9 @@
       <c r="G15" s="15" t="n"/>
     </row>
     <row r="16">
+      <c r="A16" t="n">
+        <v>12449757</v>
+      </c>
       <c r="B16">
         <f>VLOOKUP($A16,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8908,6 +11852,9 @@
       <c r="G16" s="15" t="n"/>
     </row>
     <row r="17">
+      <c r="A17" t="n">
+        <v>12575583</v>
+      </c>
       <c r="B17">
         <f>VLOOKUP($A17,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8931,6 +11878,9 @@
       <c r="G17" s="15" t="n"/>
     </row>
     <row r="18">
+      <c r="A18" t="n">
+        <v>12530660</v>
+      </c>
       <c r="B18">
         <f>VLOOKUP($A18,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8954,6 +11904,9 @@
       <c r="G18" s="15" t="n"/>
     </row>
     <row r="19">
+      <c r="A19" t="n">
+        <v>12449765</v>
+      </c>
       <c r="B19">
         <f>VLOOKUP($A19,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -8977,6 +11930,9 @@
       <c r="G19" s="15" t="n"/>
     </row>
     <row r="20">
+      <c r="A20" t="n">
+        <v>12530661</v>
+      </c>
       <c r="B20">
         <f>VLOOKUP($A20,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -9000,6 +11956,9 @@
       <c r="G20" s="15" t="n"/>
     </row>
     <row r="21">
+      <c r="A21" t="n">
+        <v>12449773</v>
+      </c>
       <c r="B21">
         <f>VLOOKUP($A21,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -9023,6 +11982,9 @@
       <c r="G21" s="15" t="n"/>
     </row>
     <row r="22">
+      <c r="A22" t="n">
+        <v>12559481</v>
+      </c>
       <c r="B22">
         <f>VLOOKUP($A22,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -9046,6 +12008,9 @@
       <c r="G22" s="15" t="n"/>
     </row>
     <row r="23">
+      <c r="A23" t="n">
+        <v>12531197</v>
+      </c>
       <c r="B23">
         <f>VLOOKUP($A23,DATA!$I:$J,2,FALSE)</f>
         <v/>
@@ -9069,6 +12034,9 @@
       <c r="G23" s="15" t="n"/>
     </row>
     <row r="24">
+      <c r="A24" t="n">
+        <v>12531198</v>
+      </c>
       <c r="B24">
         <f>VLOOKUP($A24,DATA!$I:$J,2,FALSE)</f>
         <v/>
